--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201208.4835595046</v>
+        <v>215213.377140989</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16628357.41382742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484465</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8311087.881450398</v>
+        <v>8361396.552341849</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>139.2936395235915</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>325.1239910349844</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>92.64238797326</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>96.80482503519067</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>322.96392688766</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>370.5185287146783</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>233.2748649396107</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>378.4804603970943</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>113.6180270793163</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,10 +1376,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4336721415573</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>391.0399918525611</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>129.7139627068451</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>217.2376502602741</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884144</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>237.9099537010633</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946038</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791232632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>237.9099537010638</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>18.05677735225761</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790326</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.09522912291101</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>50.38971918733606</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068459</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946032</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>122.4914619056502</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2564,7 +2564,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948834</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888141</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225763</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800578</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3433,13 +3433,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>35.34780583513565</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3554,7 +3554,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556931</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3907,16 +3907,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>250.806211598792</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.0638324846691</v>
+        <v>677.30638650758</v>
       </c>
       <c r="C2" t="n">
-        <v>812.9617637084964</v>
+        <v>536.6057405241543</v>
       </c>
       <c r="D2" t="n">
-        <v>781.092382923345</v>
+        <v>504.7363597390029</v>
       </c>
       <c r="E2" t="n">
-        <v>751.3580421220443</v>
+        <v>475.0020189377021</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>47.13458934690981</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>47.13458934690981</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>47.13458934690981</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404981</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269677</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1042.104373311972</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1042.104373311972</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1042.104373311972</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1042.104373311972</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1042.104373311972</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990839</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949434</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702491</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702491</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2335.889998702491</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>2335.889998702491</v>
       </c>
       <c r="V2" t="n">
-        <v>889.4858285179633</v>
+        <v>2335.889998702491</v>
       </c>
       <c r="W2" t="n">
-        <v>888.6707779694007</v>
+        <v>1931.034544113524</v>
       </c>
       <c r="X2" t="n">
-        <v>873.5687185891154</v>
+        <v>1511.892080692834</v>
       </c>
       <c r="Y2" t="n">
-        <v>869.3229989291729</v>
+        <v>1103.605956992488</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653426</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.4330838019849</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.3427949485381</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>257.2223802754918</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>173.8385418916534</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.45345215783735</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404981</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450741</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.3397981007197</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>975.4725727795861</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452859</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901242</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231812</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.546661027005</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.679225265885</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451057</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8890703687</v>
+        <v>652.6981595892626</v>
       </c>
       <c r="C4" t="n">
-        <v>613.8890703687</v>
+        <v>480.1364480724875</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>314.2584552740102</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>144.5004515247475</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>46.71779997404981</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>46.71779997404981</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404981</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404981</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>46.71779997404981</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>321.4762545451854</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>739.6861363131463</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1199.170003494059</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1641.428806651704</v>
       </c>
       <c r="O4" t="n">
-        <v>1235.38760622724</v>
+        <v>2061.098055877485</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2335.889998702491</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702491</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407863</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2155.230808705859</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1909.351362284314</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1630.91836153742</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1343.96285340785</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1071.936448994142</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>1071.936448994142</v>
       </c>
       <c r="Y4" t="n">
-        <v>613.8890703687</v>
+        <v>844.5167783082497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1735.906148501162</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230546</v>
+        <v>1297.763675684586</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>861.8538908590301</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>428.0791460173253</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1758.165314945666</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1380.298400881886</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1461.55225337374</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1216.160498707152</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1297.763675684586</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1114.499252887282</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>709.6437982983157</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>290.5013348776264</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>2162.20571898607</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1566.740451012549</v>
+        <v>2217.253649363488</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.597978195972</v>
+        <v>1779.111176546911</v>
       </c>
       <c r="D11" t="n">
-        <v>692.6881933704167</v>
+        <v>1343.201391721355</v>
       </c>
       <c r="E11" t="n">
-        <v>692.6881933704167</v>
+        <v>909.4266468796504</v>
       </c>
       <c r="F11" t="n">
-        <v>483.1592316112677</v>
+        <v>481.5592172888581</v>
       </c>
       <c r="G11" t="n">
-        <v>81.76140023453154</v>
+        <v>80.16138591212199</v>
       </c>
       <c r="H11" t="n">
-        <v>81.76140023453154</v>
+        <v>80.16138591212199</v>
       </c>
       <c r="I11" t="n">
-        <v>81.34461086167154</v>
+        <v>80.16138591212199</v>
       </c>
       <c r="J11" t="n">
-        <v>516.5992983145894</v>
+        <v>515.4160733650399</v>
       </c>
       <c r="K11" t="n">
-        <v>1350.949590272767</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>2357.589149685953</v>
+        <v>2341.763515985727</v>
       </c>
       <c r="M11" t="n">
-        <v>2523.267817538529</v>
+        <v>2464.106570061051</v>
       </c>
       <c r="N11" t="n">
-        <v>2523.267817538529</v>
+        <v>2464.106570061051</v>
       </c>
       <c r="O11" t="n">
-        <v>2523.267817538529</v>
+        <v>2464.106570061051</v>
       </c>
       <c r="P11" t="n">
-        <v>3351.577692371926</v>
+        <v>3292.416444894447</v>
       </c>
       <c r="Q11" t="n">
-        <v>3898.07647833052</v>
+        <v>3838.915230853042</v>
       </c>
       <c r="R11" t="n">
-        <v>4067.230543083578</v>
+        <v>4008.069295606099</v>
       </c>
       <c r="S11" t="n">
-        <v>4067.230543083578</v>
+        <v>4008.069295606099</v>
       </c>
       <c r="T11" t="n">
-        <v>3847.163315956616</v>
+        <v>3788.002068479138</v>
       </c>
       <c r="U11" t="n">
-        <v>3587.941013273633</v>
+        <v>3788.002068479138</v>
       </c>
       <c r="V11" t="n">
-        <v>3225.324063207459</v>
+        <v>3425.385118412964</v>
       </c>
       <c r="W11" t="n">
-        <v>2820.468608618492</v>
+        <v>3020.529663823997</v>
       </c>
       <c r="X11" t="n">
-        <v>2401.326145197803</v>
+        <v>2625.539773063834</v>
       </c>
       <c r="Y11" t="n">
-        <v>1993.040021497457</v>
+        <v>2217.253649363488</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587.5163558529644</v>
+        <v>586.3331309034148</v>
       </c>
       <c r="C12" t="n">
-        <v>481.0598946896066</v>
+        <v>479.8766697400571</v>
       </c>
       <c r="D12" t="n">
-        <v>385.9696058361599</v>
+        <v>384.7863808866103</v>
       </c>
       <c r="E12" t="n">
-        <v>291.8491911631136</v>
+        <v>290.665966213564</v>
       </c>
       <c r="F12" t="n">
-        <v>208.4653527792752</v>
+        <v>207.2821278297257</v>
       </c>
       <c r="G12" t="n">
-        <v>123.0802630454591</v>
+        <v>121.8970380959095</v>
       </c>
       <c r="H12" t="n">
-        <v>81.34461086167154</v>
+        <v>80.16138591212199</v>
       </c>
       <c r="I12" t="n">
-        <v>107.4082840221292</v>
+        <v>106.2250590725796</v>
       </c>
       <c r="J12" t="n">
-        <v>431.9666089883415</v>
+        <v>430.7833840387919</v>
       </c>
       <c r="K12" t="n">
-        <v>431.9666089883415</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="L12" t="n">
-        <v>431.9666089883415</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="M12" t="n">
-        <v>431.9666089883415</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="N12" t="n">
-        <v>431.9666089883415</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="O12" t="n">
-        <v>431.9666089883415</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="P12" t="n">
-        <v>1086.672655614065</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="Q12" t="n">
-        <v>1627.411594246141</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1744.584372340481</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1681.128934788863</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1550.950291119465</v>
+        <v>1549.767066169916</v>
       </c>
       <c r="U12" t="n">
-        <v>1374.613744119433</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1175.496226181433</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>990.1734719146268</v>
+        <v>988.9902469650772</v>
       </c>
       <c r="X12" t="n">
-        <v>835.3060361535067</v>
+        <v>834.1228112039572</v>
       </c>
       <c r="Y12" t="n">
-        <v>708.8202569327275</v>
+        <v>707.637031983178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.8406479386028</v>
+        <v>989.4615427747407</v>
       </c>
       <c r="C13" t="n">
-        <v>759.2789364218278</v>
+        <v>816.8998312579656</v>
       </c>
       <c r="D13" t="n">
-        <v>593.4009436233505</v>
+        <v>651.0218384594883</v>
       </c>
       <c r="E13" t="n">
-        <v>423.6429398740877</v>
+        <v>651.0218384594883</v>
       </c>
       <c r="F13" t="n">
-        <v>246.9358858358439</v>
+        <v>474.3147844212445</v>
       </c>
       <c r="G13" t="n">
-        <v>81.34461086167154</v>
+        <v>308.7235094470722</v>
       </c>
       <c r="H13" t="n">
-        <v>81.34461086167154</v>
+        <v>168.8213351374467</v>
       </c>
       <c r="I13" t="n">
-        <v>81.34461086167154</v>
+        <v>80.16138591212199</v>
       </c>
       <c r="J13" t="n">
-        <v>167.9242960263614</v>
+        <v>166.7410710768118</v>
       </c>
       <c r="K13" t="n">
-        <v>442.682750597497</v>
+        <v>441.4995256479474</v>
       </c>
       <c r="L13" t="n">
-        <v>860.892632365458</v>
+        <v>859.7094074159086</v>
       </c>
       <c r="M13" t="n">
-        <v>1320.376499546371</v>
+        <v>1319.193274596822</v>
       </c>
       <c r="N13" t="n">
-        <v>1762.635302704016</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2182.304551929797</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2529.811445900139</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2698.004220764471</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2698.004220764471</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.762852062468</v>
+        <v>2537.579627112918</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.883405640923</v>
+        <v>2291.700180691373</v>
       </c>
       <c r="U13" t="n">
-        <v>2014.450404894028</v>
+        <v>2013.267179944478</v>
       </c>
       <c r="V13" t="n">
-        <v>1727.494896764458</v>
+        <v>1726.311671814909</v>
       </c>
       <c r="W13" t="n">
-        <v>1596.470692010069</v>
+        <v>1454.2852674012</v>
       </c>
       <c r="X13" t="n">
-        <v>1351.078937343482</v>
+        <v>1208.893512734613</v>
       </c>
       <c r="Y13" t="n">
-        <v>1123.65926665759</v>
+        <v>989.4615427747407</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.088849962412</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C14" t="n">
-        <v>2089.946377145836</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.03659232028</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.261847478575</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>792.3944178877832</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>390.9965865110471</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>101.866431954263</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.1211194071809</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2569.179205597796</v>
+        <v>2588.89962142363</v>
       </c>
       <c r="O14" t="n">
-        <v>3549.358872168103</v>
+        <v>3569.079287993937</v>
       </c>
       <c r="P14" t="n">
-        <v>4377.668747001499</v>
+        <v>4397.389162827333</v>
       </c>
       <c r="Q14" t="n">
-        <v>4924.167532960093</v>
+        <v>4943.887948785928</v>
       </c>
       <c r="R14" t="n">
-        <v>5093.321597713149</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S14" t="n">
-        <v>5009.669723896986</v>
+        <v>5029.390139722821</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.602496770025</v>
+        <v>4809.32291259586</v>
       </c>
       <c r="U14" t="n">
-        <v>4549.289412223497</v>
+        <v>4550.100609912876</v>
       </c>
       <c r="V14" t="n">
-        <v>4186.672462157323</v>
+        <v>4187.483659846703</v>
       </c>
       <c r="W14" t="n">
-        <v>3781.817007568357</v>
+        <v>3782.628205257736</v>
       </c>
       <c r="X14" t="n">
-        <v>3362.674544147667</v>
+        <v>3363.485741837047</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.38842044732</v>
+        <v>2955.1996181367</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C15" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D15" t="n">
-        <v>406.4914269287513</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.6020841380505</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>127.9301051147206</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J15" t="n">
-        <v>452.4884300809329</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.4884300809329</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>452.4884300809329</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M15" t="n">
-        <v>452.4884300809329</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N15" t="n">
-        <v>452.4884300809329</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>452.4884300809329</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.194476706657</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S15" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T15" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V15" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.3624690311943</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C16" t="n">
-        <v>779.8007575144193</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D16" t="n">
-        <v>613.922764715942</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E16" t="n">
-        <v>444.1647609666792</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>267.4577069284353</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>188.4461171189529</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.2045716900884</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>881.4144534580495</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M16" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.526041857063</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.284673155059</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.407426392833</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2175.974425645938</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.018917516369</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.992513102661</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.600758436073</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.181087750181</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.088849962412</v>
+        <v>2528.90004765178</v>
       </c>
       <c r="C17" t="n">
-        <v>2089.946377145835</v>
+        <v>2090.757574835204</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.03659232028</v>
+        <v>1654.847790009648</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.261847478575</v>
+        <v>1221.073045167943</v>
       </c>
       <c r="F17" t="n">
-        <v>792.3944178877829</v>
+        <v>793.2056155771511</v>
       </c>
       <c r="G17" t="n">
-        <v>390.9965865110468</v>
+        <v>391.807784200415</v>
       </c>
       <c r="H17" t="n">
-        <v>101.866431954263</v>
+        <v>102.6776296436312</v>
       </c>
       <c r="I17" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J17" t="n">
-        <v>537.1211194071809</v>
+        <v>537.5155277236973</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.531377618218</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2569.179205597796</v>
+        <v>1463.168637987172</v>
       </c>
       <c r="N17" t="n">
-        <v>2569.179205597796</v>
+        <v>2588.899621423619</v>
       </c>
       <c r="O17" t="n">
-        <v>3549.358872168103</v>
+        <v>3569.079287993925</v>
       </c>
       <c r="P17" t="n">
-        <v>4377.668747001499</v>
+        <v>4397.389162827321</v>
       </c>
       <c r="Q17" t="n">
-        <v>4924.167532960093</v>
+        <v>4943.887948785916</v>
       </c>
       <c r="R17" t="n">
-        <v>5093.321597713149</v>
+        <v>5113.042013538972</v>
       </c>
       <c r="S17" t="n">
-        <v>5009.669723896986</v>
+        <v>5029.390139722809</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.602496770026</v>
+        <v>4809.322912595848</v>
       </c>
       <c r="U17" t="n">
-        <v>4549.289412223497</v>
+        <v>4550.100609912864</v>
       </c>
       <c r="V17" t="n">
-        <v>4186.672462157323</v>
+        <v>4187.483659846691</v>
       </c>
       <c r="W17" t="n">
-        <v>3781.817007568356</v>
+        <v>3782.628205257724</v>
       </c>
       <c r="X17" t="n">
-        <v>3362.674544147667</v>
+        <v>3363.485741837035</v>
       </c>
       <c r="Y17" t="n">
-        <v>2954.38842044732</v>
+        <v>2955.199618136689</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620723</v>
       </c>
       <c r="C18" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987145</v>
       </c>
       <c r="D18" t="n">
-        <v>406.4914269287513</v>
+        <v>406.8858352452678</v>
       </c>
       <c r="E18" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722215</v>
       </c>
       <c r="F18" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883831</v>
       </c>
       <c r="G18" t="n">
-        <v>143.6020841380505</v>
+        <v>143.996492454567</v>
       </c>
       <c r="H18" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I18" t="n">
-        <v>127.9301051147206</v>
+        <v>128.324513431237</v>
       </c>
       <c r="J18" t="n">
-        <v>452.4884300809329</v>
+        <v>452.8828383974493</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974493</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974493</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974493</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974493</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.194476706657</v>
+        <v>1466.684448215751</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.194476706657</v>
+        <v>1466.684448215751</v>
       </c>
       <c r="Q18" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626147</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418354</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.6016380738788</v>
+        <v>952.7568773477107</v>
       </c>
       <c r="C19" t="n">
-        <v>798.0399265571037</v>
+        <v>780.1951658309356</v>
       </c>
       <c r="D19" t="n">
-        <v>632.1619337586264</v>
+        <v>614.3171730324583</v>
       </c>
       <c r="E19" t="n">
-        <v>462.4039300093636</v>
+        <v>444.5591692831956</v>
       </c>
       <c r="F19" t="n">
-        <v>285.6968759711199</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G19" t="n">
-        <v>120.1056009969475</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="H19" t="n">
-        <v>120.1056009969475</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I19" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J19" t="n">
-        <v>188.4461171189529</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K19" t="n">
-        <v>463.2045716900884</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L19" t="n">
-        <v>881.4144534580495</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M19" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.526041857063</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.526041857063</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2472.646595435518</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.213594688623</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.258086559053</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.231682145345</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1389.839927478758</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.420256792866</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.088849962413</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2089.946377145836</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.036592320281</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.261847478575</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>792.3944178877829</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>390.9965865110468</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>101.866431954263</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.1211194071809</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2569.179205597796</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2569.179205597796</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3549.358872168103</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4377.668747001499</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4924.167532960093</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5093.321597713149</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5028.578942033441</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4808.51171490648</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4549.289412223497</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4186.672462157323</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3781.817007568357</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3362.674544147667</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2954.388420447321</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.4914269287513</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.6020841380505</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>127.9301051147206</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.4884300809329</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.4884300809329</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.4884300809329</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.4884300809329</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.4884300809329</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.4884300809329</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.6016380738789</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7029318240446</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D22" t="n">
-        <v>753.8249390255673</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0669352763045</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3598812380608</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7686062638885</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.4461171189529</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.2045716900884</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.4144534580495</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.526041857063</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.526041857063</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2472.646595435518</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.213594688623</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.258086559054</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.231682145345</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1389.839927478758</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.420256792866</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477104</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309354</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E28" t="n">
         <v>444.5591692831957</v>
@@ -6391,7 +6391,7 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N28" t="n">
         <v>1783.551532113124</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.995166752589</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066697</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6598,13 +6598,13 @@
         <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6710,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6838,10 +6838,10 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6923,7 +6923,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004233</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716168</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731396</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238769</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>303.5569696238769</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>137.9656946497045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,34 +7172,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7397,64 +7397,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707799</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236977</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423639</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993945</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.38916282734</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785936</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538992</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722829</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595868</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912884</v>
       </c>
       <c r="V41" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620726</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987149</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452682</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722219</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883835</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545674</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707799</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312374</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974498</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974498</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974498</v>
       </c>
       <c r="M42" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974498</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974498</v>
       </c>
       <c r="O42" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974498</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T42" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V42" t="n">
         <v>1196.412455590541</v>
@@ -7530,10 +7530,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>856.222265562615</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418358</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477105</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276423</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>666.172242529165</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799023</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799023</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.82296380573</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961045</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707799</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354697</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066052</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745664</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832885</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1196.430565563405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.89962142363</v>
       </c>
       <c r="O44" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993937</v>
       </c>
       <c r="P44" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.389162827333</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785928</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
         <v>406.885835245268</v>
@@ -7716,31 +7716,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J45" t="n">
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7749,16 +7749,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
         <v>1196.412455590541</v>
@@ -7767,10 +7767,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876359</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>565.7897837222272</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>77.34673934025989</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>277.5676190151567</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.807635770894</v>
+        <v>1002.017323901525</v>
       </c>
       <c r="M11" t="n">
-        <v>167.3521897500773</v>
+        <v>123.5788425003266</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>123.8866949288667</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>123.8866949288667</v>
+        <v>92.22506899524888</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>183.4781570095936</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>123.8866949288667</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635256</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,25 +11297,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>216.1550831533268</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>23.91104693392128</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>7.907823718758749</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.524291969370097e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.412621479131395</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>18.72012595509</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>8.134326545672366e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>18.72012595508946</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>69.7165723808138</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.412621479131395</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.72012595509036</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>103.1553467313936</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>33.27974144948182</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142722</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>692433.9566312996</v>
+        <v>705534.2799644434</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>692433.9566312996</v>
+        <v>712388.3599235674</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>692433.9566312996</v>
+        <v>712388.3599235674</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>626339.9292378093</v>
+        <v>619924.9156798837</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737601.7485498607</v>
+        <v>739740.0864025035</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737601.7485498607</v>
+        <v>739740.0864025021</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737601.7485498607</v>
+        <v>739740.0864025031</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739740.086402503</v>
+        <v>739740.0864025031</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739740.0864025031</v>
+        <v>739740.0864025032</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26314,22 @@
         <v>294881.0259397246</v>
       </c>
       <c r="C2" t="n">
-        <v>294881.0259397246</v>
+        <v>294881.0259397247</v>
       </c>
       <c r="D2" t="n">
-        <v>294881.0259397248</v>
+        <v>294881.0259397247</v>
       </c>
       <c r="E2" t="n">
-        <v>245350.456759067</v>
+        <v>242837.561711057</v>
       </c>
       <c r="F2" t="n">
-        <v>288934.0395928736</v>
+        <v>289771.6712755439</v>
       </c>
       <c r="G2" t="n">
-        <v>288934.0395928735</v>
+        <v>289771.6712755434</v>
       </c>
       <c r="H2" t="n">
-        <v>288934.0395928735</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="I2" t="n">
         <v>289771.6712755437</v>
@@ -26344,7 +26344,7 @@
         <v>289771.6712755437</v>
       </c>
       <c r="M2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="N2" t="n">
         <v>289771.6712755437</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087937</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889389</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>176910.9817265644</v>
+        <v>99874.97317730874</v>
       </c>
       <c r="F3" t="n">
-        <v>73500.44137969821</v>
+        <v>79150.85324460946</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.521271759789671e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1311.01817420526</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>152792.9007051286</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773522</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147656.3051872098</v>
+        <v>83359.26563805113</v>
       </c>
       <c r="N3" t="n">
-        <v>62829.35093431432</v>
+        <v>67659.41322128694</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>194781.6603085977</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>91712.56557670739</v>
+        <v>90773.23962263219</v>
       </c>
       <c r="F4" t="n">
-        <v>108004.2091771044</v>
+        <v>108317.317828463</v>
       </c>
       <c r="G4" t="n">
-        <v>108004.2091771044</v>
+        <v>108317.3178284628</v>
       </c>
       <c r="H4" t="n">
-        <v>108004.2091771044</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="I4" t="n">
         <v>108317.3178284629</v>
       </c>
       <c r="J4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="K4" t="n">
         <v>108317.3178284629</v>
@@ -26448,16 +26448,16 @@
         <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
+        <v>108317.3178284629</v>
+      </c>
+      <c r="N4" t="n">
         <v>108317.317828463</v>
       </c>
-      <c r="N4" t="n">
-        <v>108317.3178284629</v>
-      </c>
       <c r="O4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.3178284631</v>
       </c>
       <c r="P4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.317828463</v>
       </c>
     </row>
     <row r="5">
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027784</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>61821.90425487037</v>
+        <v>60922.6532932127</v>
       </c>
       <c r="F5" t="n">
-        <v>77418.48828523987</v>
+        <v>77718.23860579256</v>
       </c>
       <c r="G5" t="n">
-        <v>77418.48828523987</v>
+        <v>77718.23860579237</v>
       </c>
       <c r="H5" t="n">
-        <v>77418.48828523987</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="K5" t="n">
         <v>77718.2386057925</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579268</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579256</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124960.3288897767</v>
+        <v>-164736.3783579445</v>
       </c>
       <c r="C6" t="n">
-        <v>17230.97176993324</v>
+        <v>11162.31946574543</v>
       </c>
       <c r="D6" t="n">
-        <v>17230.97176993336</v>
+        <v>38152.51910463932</v>
       </c>
       <c r="E6" t="n">
-        <v>-85094.99479907515</v>
+        <v>-8969.865583136054</v>
       </c>
       <c r="F6" t="n">
-        <v>30010.90075083108</v>
+        <v>24562.03725729629</v>
       </c>
       <c r="G6" t="n">
-        <v>103511.3421305292</v>
+        <v>103712.8905019064</v>
       </c>
       <c r="H6" t="n">
-        <v>103511.3421305292</v>
+        <v>103712.8905019052</v>
       </c>
       <c r="I6" t="n">
-        <v>102425.096667083</v>
+        <v>103712.8905019057</v>
       </c>
       <c r="J6" t="n">
-        <v>-7278.350503701833</v>
+        <v>-49080.01020322296</v>
       </c>
       <c r="K6" t="n">
-        <v>103736.1148412883</v>
+        <v>82211.67110417048</v>
       </c>
       <c r="L6" t="n">
-        <v>103736.1148412883</v>
+        <v>103712.8905019057</v>
       </c>
       <c r="M6" t="n">
-        <v>-43920.1903459216</v>
+        <v>20353.62486385459</v>
       </c>
       <c r="N6" t="n">
-        <v>40906.76390697405</v>
+        <v>36053.47728061869</v>
       </c>
       <c r="O6" t="n">
-        <v>103736.1148412883</v>
+        <v>103712.8905019053</v>
       </c>
       <c r="P6" t="n">
-        <v>103736.1148412884</v>
+        <v>103712.8905019056</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1016.807635770894</v>
+        <v>1002.017323901525</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.330399428287</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.330399428287</v>
+        <v>1278.260503384743</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.330399428287</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384748</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.5427069322343</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.51177825079</v>
+        <v>334.5021172936678</v>
       </c>
       <c r="F4" t="n">
-        <v>256.5227636573931</v>
+        <v>276.2431794832213</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-1.308065559046638e-12</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>4.93010395645797</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223407</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.5117782507898</v>
+        <v>334.5021172936675</v>
       </c>
       <c r="N4" t="n">
-        <v>256.5227636573933</v>
+        <v>276.2431794832213</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.5427069322343</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.51177825079</v>
+        <v>334.5021172936678</v>
       </c>
       <c r="N4" t="n">
-        <v>256.5227636573931</v>
+        <v>276.2431794832213</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>294.4674085648195</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>33.86678953052734</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.57682489723253</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>78.13515846267066</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>108.5867600896399</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>53.070226580206</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>36.03127542996069</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>53.0702265802056</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.5852353840268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>565.7897837222272</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>77.34673934025989</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>277.5676190151567</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.807635770894</v>
+        <v>1002.017323901525</v>
       </c>
       <c r="M11" t="n">
-        <v>167.3521897500773</v>
+        <v>123.5788425003266</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>123.8866949288667</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,10 +35726,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>123.8866949288667</v>
+        <v>92.22506899524888</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>183.4781570095936</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>123.8866949288667</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,7 +36759,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645591</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635256</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37868,16 +37868,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,25 +38017,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
